--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -25,12 +25,24 @@
     <t>Link do Time</t>
   </si>
   <si>
+    <t>bugredasmissões</t>
+  </si>
+  <si>
+    <t>C R Juvenal</t>
+  </si>
+  <si>
     <t>Doug Leal F.C</t>
   </si>
   <si>
+    <t>Esquadrão Gazembrino</t>
+  </si>
+  <si>
     <t>FBC Colorado</t>
   </si>
   <si>
+    <t>GaúchoDaFronteira F.C</t>
+  </si>
+  <si>
     <t>GE Bebum</t>
   </si>
   <si>
@@ -49,18 +61,39 @@
     <t>Medonho´s F.C.</t>
   </si>
   <si>
+    <t>NHU PORÃ SAF.</t>
+  </si>
+  <si>
+    <t>Pontaç0 F.C.</t>
+  </si>
+  <si>
+    <t>SC 100 Sono</t>
+  </si>
+  <si>
     <t>SC ÉoINTER!</t>
   </si>
   <si>
     <t>Texas Club 2026</t>
   </si>
   <si>
+    <t>https://cartola.globo.com/#!/time/19209079</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/1488983</t>
+  </si>
+  <si>
     <t>https://cartola.globo.com/#!/time/287965</t>
   </si>
   <si>
+    <t>https://cartola.globo.com/#!/time/2916559</t>
+  </si>
+  <si>
     <t>https://cartola.globo.com/#!/time/186283</t>
   </si>
   <si>
+    <t>https://cartola.globo.com/#!/time/2371918</t>
+  </si>
+  <si>
     <t>https://cartola.globo.com/#!/time/16411206</t>
   </si>
   <si>
@@ -77,6 +110,15 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/1867254</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/4088673</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/20651178</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/14709358</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/184499</t>
@@ -453,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>287965</v>
+        <v>19209079</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -486,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>186283</v>
+        <v>1488983</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -497,10 +539,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>16411206</v>
+        <v>287965</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -508,10 +550,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>47775950</v>
+        <v>2916559</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -519,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1747619</v>
+        <v>186283</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -530,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>32966</v>
+        <v>2371918</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -541,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>44810918</v>
+        <v>16411206</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -552,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1867254</v>
+        <v>47775950</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -563,10 +605,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>184499</v>
+        <v>1747619</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -574,24 +616,108 @@
         <v>12</v>
       </c>
       <c r="B11">
+        <v>32966</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>44810918</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1867254</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>4088673</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>20651178</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>14709358</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>184499</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>1273719</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="!/time/287965"/>
-    <hyperlink ref="C3" r:id="rId2" location="!/time/186283"/>
-    <hyperlink ref="C4" r:id="rId3" location="!/time/16411206"/>
-    <hyperlink ref="C5" r:id="rId4" location="!/time/47775950"/>
-    <hyperlink ref="C6" r:id="rId5" location="!/time/1747619"/>
-    <hyperlink ref="C7" r:id="rId6" location="!/time/32966"/>
-    <hyperlink ref="C8" r:id="rId7" location="!/time/44810918"/>
-    <hyperlink ref="C9" r:id="rId8" location="!/time/1867254"/>
-    <hyperlink ref="C10" r:id="rId9" location="!/time/184499"/>
-    <hyperlink ref="C11" r:id="rId10" location="!/time/1273719"/>
+    <hyperlink ref="C2" r:id="rId1" location="!/time/19209079"/>
+    <hyperlink ref="C3" r:id="rId2" location="!/time/1488983"/>
+    <hyperlink ref="C4" r:id="rId3" location="!/time/287965"/>
+    <hyperlink ref="C5" r:id="rId4" location="!/time/2916559"/>
+    <hyperlink ref="C6" r:id="rId5" location="!/time/186283"/>
+    <hyperlink ref="C7" r:id="rId6" location="!/time/2371918"/>
+    <hyperlink ref="C8" r:id="rId7" location="!/time/16411206"/>
+    <hyperlink ref="C9" r:id="rId8" location="!/time/47775950"/>
+    <hyperlink ref="C10" r:id="rId9" location="!/time/1747619"/>
+    <hyperlink ref="C11" r:id="rId10" location="!/time/32966"/>
+    <hyperlink ref="C12" r:id="rId11" location="!/time/44810918"/>
+    <hyperlink ref="C13" r:id="rId12" location="!/time/1867254"/>
+    <hyperlink ref="C14" r:id="rId13" location="!/time/4088673"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/20651178"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/14709358"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/184499"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/1273719"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -64,6 +64,9 @@
     <t>NHU PORÃ SAF.</t>
   </si>
   <si>
+    <t>Pepe Leal FC</t>
+  </si>
+  <si>
     <t>Pontaç0 F.C.</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/4088673</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/1326835</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/20651178</t>
@@ -495,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +526,7 @@
         <v>19209079</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -531,7 +537,7 @@
         <v>1488983</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -542,7 +548,7 @@
         <v>287965</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -553,7 +559,7 @@
         <v>2916559</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -564,7 +570,7 @@
         <v>186283</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -575,7 +581,7 @@
         <v>2371918</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -586,7 +592,7 @@
         <v>16411206</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -597,7 +603,7 @@
         <v>47775950</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -608,7 +614,7 @@
         <v>1747619</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -619,7 +625,7 @@
         <v>32966</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -630,7 +636,7 @@
         <v>44810918</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -641,7 +647,7 @@
         <v>1867254</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -652,7 +658,7 @@
         <v>4088673</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -660,10 +666,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>20651178</v>
+        <v>1326835</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -671,10 +677,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>14709358</v>
+        <v>20651178</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -682,10 +688,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>184499</v>
+        <v>14709358</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -693,10 +699,21 @@
         <v>19</v>
       </c>
       <c r="B18">
+        <v>184499</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>1273719</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -714,10 +731,11 @@
     <hyperlink ref="C12" r:id="rId11" location="!/time/44810918"/>
     <hyperlink ref="C13" r:id="rId12" location="!/time/1867254"/>
     <hyperlink ref="C14" r:id="rId13" location="!/time/4088673"/>
-    <hyperlink ref="C15" r:id="rId14" location="!/time/20651178"/>
-    <hyperlink ref="C16" r:id="rId15" location="!/time/14709358"/>
-    <hyperlink ref="C17" r:id="rId16" location="!/time/184499"/>
-    <hyperlink ref="C18" r:id="rId17" location="!/time/1273719"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/1326835"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/20651178"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/14709358"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/184499"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/1273719"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Link do Time</t>
   </si>
   <si>
+    <t>Arran Katoko FC</t>
+  </si>
+  <si>
     <t>bugredasmissões</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>Texas Club 2026</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/19833277</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/19209079</t>
@@ -501,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>19209079</v>
+        <v>19833277</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -534,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1488983</v>
+        <v>19209079</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -545,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>287965</v>
+        <v>1488983</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -556,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2916559</v>
+        <v>287965</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -567,10 +573,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>186283</v>
+        <v>2916559</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -578,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2371918</v>
+        <v>186283</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -589,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>16411206</v>
+        <v>2371918</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -600,10 +606,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>47775950</v>
+        <v>16411206</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -611,10 +617,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1747619</v>
+        <v>47775950</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -622,10 +628,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>32966</v>
+        <v>1747619</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -633,10 +639,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>44810918</v>
+        <v>32966</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -644,10 +650,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1867254</v>
+        <v>44810918</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -655,10 +661,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>4088673</v>
+        <v>1867254</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -666,10 +672,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1326835</v>
+        <v>4088673</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -677,10 +683,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>20651178</v>
+        <v>1326835</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -688,10 +694,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>14709358</v>
+        <v>20651178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -699,10 +705,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>184499</v>
+        <v>14709358</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -710,32 +716,44 @@
         <v>20</v>
       </c>
       <c r="B19">
+        <v>184499</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>1273719</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="!/time/19209079"/>
-    <hyperlink ref="C3" r:id="rId2" location="!/time/1488983"/>
-    <hyperlink ref="C4" r:id="rId3" location="!/time/287965"/>
-    <hyperlink ref="C5" r:id="rId4" location="!/time/2916559"/>
-    <hyperlink ref="C6" r:id="rId5" location="!/time/186283"/>
-    <hyperlink ref="C7" r:id="rId6" location="!/time/2371918"/>
-    <hyperlink ref="C8" r:id="rId7" location="!/time/16411206"/>
-    <hyperlink ref="C9" r:id="rId8" location="!/time/47775950"/>
-    <hyperlink ref="C10" r:id="rId9" location="!/time/1747619"/>
-    <hyperlink ref="C11" r:id="rId10" location="!/time/32966"/>
-    <hyperlink ref="C12" r:id="rId11" location="!/time/44810918"/>
-    <hyperlink ref="C13" r:id="rId12" location="!/time/1867254"/>
-    <hyperlink ref="C14" r:id="rId13" location="!/time/4088673"/>
-    <hyperlink ref="C15" r:id="rId14" location="!/time/1326835"/>
-    <hyperlink ref="C16" r:id="rId15" location="!/time/20651178"/>
-    <hyperlink ref="C17" r:id="rId16" location="!/time/14709358"/>
-    <hyperlink ref="C18" r:id="rId17" location="!/time/184499"/>
-    <hyperlink ref="C19" r:id="rId18" location="!/time/1273719"/>
+    <hyperlink ref="C2" r:id="rId1" location="!/time/19833277"/>
+    <hyperlink ref="C3" r:id="rId2" location="!/time/19209079"/>
+    <hyperlink ref="C4" r:id="rId3" location="!/time/1488983"/>
+    <hyperlink ref="C5" r:id="rId4" location="!/time/287965"/>
+    <hyperlink ref="C6" r:id="rId5" location="!/time/2916559"/>
+    <hyperlink ref="C7" r:id="rId6" location="!/time/186283"/>
+    <hyperlink ref="C8" r:id="rId7" location="!/time/2371918"/>
+    <hyperlink ref="C9" r:id="rId8" location="!/time/16411206"/>
+    <hyperlink ref="C10" r:id="rId9" location="!/time/47775950"/>
+    <hyperlink ref="C11" r:id="rId10" location="!/time/1747619"/>
+    <hyperlink ref="C12" r:id="rId11" location="!/time/32966"/>
+    <hyperlink ref="C13" r:id="rId12" location="!/time/44810918"/>
+    <hyperlink ref="C14" r:id="rId13" location="!/time/1867254"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/4088673"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/1326835"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/20651178"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/14709358"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/184499"/>
+    <hyperlink ref="C20" r:id="rId19" location="!/time/1273719"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica_aluna.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -49,6 +49,9 @@
     <t>GE Bebum</t>
   </si>
   <si>
+    <t>GrioTeam</t>
+  </si>
+  <si>
     <t>Grêmio_Campeão_LA_27</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/16411206</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/14933455</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/47775950</t>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +538,7 @@
         <v>19833277</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -543,7 +549,7 @@
         <v>19209079</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -554,7 +560,7 @@
         <v>1488983</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -565,7 +571,7 @@
         <v>287965</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -576,7 +582,7 @@
         <v>2916559</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -587,7 +593,7 @@
         <v>186283</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -598,7 +604,7 @@
         <v>2371918</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -609,7 +615,7 @@
         <v>16411206</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -617,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>47775950</v>
+        <v>14933455</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -628,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1747619</v>
+        <v>47775950</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -639,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>32966</v>
+        <v>1747619</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -650,10 +656,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>44810918</v>
+        <v>32966</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -661,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1867254</v>
+        <v>44810918</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -672,10 +678,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4088673</v>
+        <v>1867254</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -683,10 +689,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1326835</v>
+        <v>4088673</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -694,10 +700,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>20651178</v>
+        <v>1326835</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -705,10 +711,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>14709358</v>
+        <v>20651178</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -716,10 +722,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>184499</v>
+        <v>14709358</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -727,10 +733,21 @@
         <v>21</v>
       </c>
       <c r="B20">
+        <v>184499</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>1273719</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -743,17 +760,18 @@
     <hyperlink ref="C7" r:id="rId6" location="!/time/186283"/>
     <hyperlink ref="C8" r:id="rId7" location="!/time/2371918"/>
     <hyperlink ref="C9" r:id="rId8" location="!/time/16411206"/>
-    <hyperlink ref="C10" r:id="rId9" location="!/time/47775950"/>
-    <hyperlink ref="C11" r:id="rId10" location="!/time/1747619"/>
-    <hyperlink ref="C12" r:id="rId11" location="!/time/32966"/>
-    <hyperlink ref="C13" r:id="rId12" location="!/time/44810918"/>
-    <hyperlink ref="C14" r:id="rId13" location="!/time/1867254"/>
-    <hyperlink ref="C15" r:id="rId14" location="!/time/4088673"/>
-    <hyperlink ref="C16" r:id="rId15" location="!/time/1326835"/>
-    <hyperlink ref="C17" r:id="rId16" location="!/time/20651178"/>
-    <hyperlink ref="C18" r:id="rId17" location="!/time/14709358"/>
-    <hyperlink ref="C19" r:id="rId18" location="!/time/184499"/>
-    <hyperlink ref="C20" r:id="rId19" location="!/time/1273719"/>
+    <hyperlink ref="C10" r:id="rId9" location="!/time/14933455"/>
+    <hyperlink ref="C11" r:id="rId10" location="!/time/47775950"/>
+    <hyperlink ref="C12" r:id="rId11" location="!/time/1747619"/>
+    <hyperlink ref="C13" r:id="rId12" location="!/time/32966"/>
+    <hyperlink ref="C14" r:id="rId13" location="!/time/44810918"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/1867254"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/4088673"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/1326835"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/20651178"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/14709358"/>
+    <hyperlink ref="C20" r:id="rId19" location="!/time/184499"/>
+    <hyperlink ref="C21" r:id="rId20" location="!/time/1273719"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
